--- a/correosmasivos.xlsx
+++ b/correosmasivos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://suramericana-my.sharepoint.com/personal/wagamez_sura_com_co/Documents/25.Modelo completo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="11_2BFDD7A787305504677B3511595ED87656CD04CF" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C96C0079-F797-41D3-A83A-43156090682F}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_6DD957AA87305504677B3511595ED87656CD8010" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C54DB2E5-87B4-4099-9E21-8718F03C9C56}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -54,10 +54,10 @@
 </t>
   </si>
   <si>
-    <t>Para servicios como medicina prioritaria de la oferta que generamos en el ultimo mes de 1506 aproximandamente el 0.0% aprovechandose correctamente las citas</t>
-  </si>
-  <si>
-    <t>medicosIPS SURA ALMACENTRO</t>
+    <t>Para servicios como medicina prioritaria de la oferta que generamos en el ultimo mes de 1506 aproximandamente el 0.0% aprovechandose correctamente las citas. Este ha sido el comportamiento segun el tiempo agendado de el numero de medicos que han trabajado en la sede</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/wagamezj/25.Modelo-completo/main/Graficas/medicos0.png</t>
   </si>
   <si>
     <t>Datos de la IPS IPS SURA ALTOS DEL PRADO</t>
@@ -68,10 +68,10 @@
 </t>
   </si>
   <si>
-    <t>Para servicios como medicina prioritaria de la oferta que generamos en el ultimo mes de 1868 aproximandamente el 0.0% aprovechandose correctamente las citas</t>
-  </si>
-  <si>
-    <t>medicosIPS SURA ALTOS DEL PRADO</t>
+    <t>Para servicios como medicina prioritaria de la oferta que generamos en el ultimo mes de 1868 aproximandamente el 0.0% aprovechandose correctamente las citas. Este ha sido el comportamiento segun el tiempo agendado de el numero de medicos que han trabajado en la sede</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/wagamezj/25.Modelo-completo/main/Graficas/medicos1.png</t>
   </si>
   <si>
     <t>Datos de la IPS IPS SURA BOSTON</t>
@@ -82,10 +82,10 @@
 </t>
   </si>
   <si>
-    <t>Para servicios como medicina prioritaria de la oferta que generamos en el ultimo mes de 1111 aproximandamente el 0.01% aprovechandose correctamente las citas</t>
-  </si>
-  <si>
-    <t>medicosIPS SURA BOSTON</t>
+    <t>Para servicios como medicina prioritaria de la oferta que generamos en el ultimo mes de 1111 aproximandamente el 0.01% aprovechandose correctamente las citas. Este ha sido el comportamiento segun el tiempo agendado de el numero de medicos que han trabajado en la sede</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/wagamezj/25.Modelo-completo/main/Graficas/medicos2.png</t>
   </si>
   <si>
     <t>Datos de la IPS IPS SURA BUCARAMANGA</t>
@@ -96,10 +96,10 @@
 </t>
   </si>
   <si>
-    <t>Para servicios como medicina prioritaria de la oferta que generamos en el ultimo mes de 1379 aproximandamente el 0.0% aprovechandose correctamente las citas</t>
-  </si>
-  <si>
-    <t>medicosIPS SURA BUCARAMANGA</t>
+    <t>Para servicios como medicina prioritaria de la oferta que generamos en el ultimo mes de 1379 aproximandamente el 0.0% aprovechandose correctamente las citas. Este ha sido el comportamiento segun el tiempo agendado de el numero de medicos que han trabajado en la sede</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/wagamezj/25.Modelo-completo/main/Graficas/medicos3.png</t>
   </si>
   <si>
     <t>wilmer070@gmail.com</t>
@@ -113,10 +113,10 @@
 </t>
   </si>
   <si>
-    <t>Para servicios como medicina prioritaria de la oferta que generamos en el ultimo mes de 3317 aproximandamente el 0.01% aprovechandose correctamente las citas</t>
-  </si>
-  <si>
-    <t>medicosIPS SURA CENTRO</t>
+    <t>Para servicios como medicina prioritaria de la oferta que generamos en el ultimo mes de 3317 aproximandamente el 0.01% aprovechandose correctamente las citas. Este ha sido el comportamiento segun el tiempo agendado de el numero de medicos que han trabajado en la sede</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/wagamezj/25.Modelo-completo/main/Graficas/medicos4.png</t>
   </si>
   <si>
     <t xml:space="preserve">Datos de la IPS IPS SURA CHAPINERO </t>
@@ -127,10 +127,10 @@
 </t>
   </si>
   <si>
-    <t>Para servicios como medicina prioritaria de la oferta que generamos en el ultimo mes de 919 aproximandamente el 0.14% es un poco mas alto de lo permitido surgiendo la necesidad de hacer un mejor aprovechamiento de las citas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">medicosIPS SURA CHAPINERO </t>
+    <t>Para servicios como medicina prioritaria de la oferta que generamos en el ultimo mes de 919 aproximandamente el 0.14% es un poco mas alto de lo permitido surgiendo la necesidad de hacer un mejor aprovechamiento de las citas. Este ha sido el comportamiento segun el tiempo agendado de el numero de medicos que han trabajado en la sede</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/wagamezj/25.Modelo-completo/main/Graficas/medicos5.png</t>
   </si>
   <si>
     <t xml:space="preserve">Datos de la IPS IPS SURA CORDOBA </t>
@@ -141,10 +141,10 @@
 </t>
   </si>
   <si>
-    <t>Para servicios como medicina prioritaria de la oferta que generamos en el ultimo mes de 1292 aproximandamente el 0.01% aprovechandose correctamente las citas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">medicosIPS SURA CORDOBA </t>
+    <t>Para servicios como medicina prioritaria de la oferta que generamos en el ultimo mes de 1292 aproximandamente el 0.01% aprovechandose correctamente las citas. Este ha sido el comportamiento segun el tiempo agendado de el numero de medicos que han trabajado en la sede</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/wagamezj/25.Modelo-completo/main/Graficas/medicos6.png</t>
   </si>
   <si>
     <t>Datos de la IPS IPS SURA LA FLORA</t>
@@ -155,10 +155,10 @@
 </t>
   </si>
   <si>
-    <t>Para servicios como medicina prioritaria de la oferta que generamos en el ultimo mes de 2270 aproximandamente el 0.02% aprovechandose correctamente las citas</t>
-  </si>
-  <si>
-    <t>medicosIPS SURA LA FLORA</t>
+    <t>Para servicios como medicina prioritaria de la oferta que generamos en el ultimo mes de 2270 aproximandamente el 0.02% aprovechandose correctamente las citas. Este ha sido el comportamiento segun el tiempo agendado de el numero de medicos que han trabajado en la sede</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/wagamezj/25.Modelo-completo/main/Graficas/medicos7.png</t>
   </si>
   <si>
     <t>Datos de la IPS IPS SURA LOS MOLINOS</t>
@@ -169,10 +169,10 @@
 </t>
   </si>
   <si>
-    <t>Para servicios como medicina prioritaria de la oferta que generamos en el ultimo mes de 3712 aproximandamente el 0.0% aprovechandose correctamente las citas</t>
-  </si>
-  <si>
-    <t>medicosIPS SURA LOS MOLINOS</t>
+    <t>Para servicios como medicina prioritaria de la oferta que generamos en el ultimo mes de 3712 aproximandamente el 0.0% aprovechandose correctamente las citas. Este ha sido el comportamiento segun el tiempo agendado de el numero de medicos que han trabajado en la sede</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/wagamezj/25.Modelo-completo/main/Graficas/medicos8.png</t>
   </si>
   <si>
     <t xml:space="preserve">Datos de la IPS IPS SURA MONTERREY </t>
@@ -183,10 +183,10 @@
 </t>
   </si>
   <si>
-    <t>Para servicios como medicina prioritaria de la oferta que generamos en el ultimo mes de 2013 aproximandamente el 0.0% aprovechandose correctamente las citas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">medicosIPS SURA MONTERREY </t>
+    <t>Para servicios como medicina prioritaria de la oferta que generamos en el ultimo mes de 2013 aproximandamente el 0.0% aprovechandose correctamente las citas. Este ha sido el comportamiento segun el tiempo agendado de el numero de medicos que han trabajado en la sede</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/wagamezj/25.Modelo-completo/main/Graficas/medicos9.png</t>
   </si>
   <si>
     <t>Datos de la IPS IPS SURA MURILLO</t>
@@ -197,10 +197,10 @@
 </t>
   </si>
   <si>
-    <t>Para servicios como medicina prioritaria de la oferta que generamos en el ultimo mes de 795 aproximandamente el 0.0% aprovechandose correctamente las citas</t>
-  </si>
-  <si>
-    <t>medicosIPS SURA MURILLO</t>
+    <t>Para servicios como medicina prioritaria de la oferta que generamos en el ultimo mes de 795 aproximandamente el 0.0% aprovechandose correctamente las citas. Este ha sido el comportamiento segun el tiempo agendado de el numero de medicos que han trabajado en la sede</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/wagamezj/25.Modelo-completo/main/Graficas/medicos10.png</t>
   </si>
   <si>
     <t>Datos de la IPS IPS SURA OLAYA</t>
@@ -211,10 +211,10 @@
 </t>
   </si>
   <si>
-    <t>Para servicios como medicina prioritaria de la oferta que generamos en el ultimo mes de 1339 aproximandamente el 0.03% aprovechandose correctamente las citas</t>
-  </si>
-  <si>
-    <t>medicosIPS SURA OLAYA</t>
+    <t>Para servicios como medicina prioritaria de la oferta que generamos en el ultimo mes de 1339 aproximandamente el 0.03% aprovechandose correctamente las citas. Este ha sido el comportamiento segun el tiempo agendado de el numero de medicos que han trabajado en la sede</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/wagamezj/25.Modelo-completo/main/Graficas/medicos11.png</t>
   </si>
   <si>
     <t>Datos de la IPS IPS SURA PASO ANCHO</t>
@@ -225,10 +225,10 @@
 </t>
   </si>
   <si>
-    <t>Para servicios como medicina prioritaria de la oferta que generamos en el ultimo mes de 777 aproximandamente el 0.01% aprovechandose correctamente las citas</t>
-  </si>
-  <si>
-    <t>medicosIPS SURA PASO ANCHO</t>
+    <t>Para servicios como medicina prioritaria de la oferta que generamos en el ultimo mes de 777 aproximandamente el 0.01% aprovechandose correctamente las citas. Este ha sido el comportamiento segun el tiempo agendado de el numero de medicos que han trabajado en la sede</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/wagamezj/25.Modelo-completo/main/Graficas/medicos12.png</t>
   </si>
   <si>
     <t>Datos de la IPS IPS SURA RIONEGRO</t>
@@ -239,10 +239,10 @@
 </t>
   </si>
   <si>
-    <t>Para servicios como medicina prioritaria de la oferta que generamos en el ultimo mes de 1015 aproximandamente el 0.01% aprovechandose correctamente las citas</t>
-  </si>
-  <si>
-    <t>medicosIPS SURA RIONEGRO</t>
+    <t>Para servicios como medicina prioritaria de la oferta que generamos en el ultimo mes de 1015 aproximandamente el 0.01% aprovechandose correctamente las citas. Este ha sido el comportamiento segun el tiempo agendado de el numero de medicos que han trabajado en la sede</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/wagamezj/25.Modelo-completo/main/Graficas/medicos13.png</t>
   </si>
   <si>
     <t>wagamez@unal.edu.co</t>
@@ -256,10 +256,10 @@
 </t>
   </si>
   <si>
-    <t>Para medicina prioritaria la oferta fue 0 debido a que la sede probablemente estuvo cerrada</t>
-  </si>
-  <si>
-    <t>medicosIPS SURA SAMAN</t>
+    <t>Para medicina prioritaria la oferta fue 0 debido a que la sede probablemente estuvo cerrada. Este ha sido el comportamiento segun el tiempo agendado de el numero de medicos que han trabajado en la sede</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/wagamezj/25.Modelo-completo/main/Graficas/medicos14.png</t>
   </si>
   <si>
     <t>Datos de la IPS IPS SURA SAN DIEGO</t>
@@ -270,10 +270,10 @@
 </t>
   </si>
   <si>
-    <t>Para servicios como medicina prioritaria de la oferta que generamos en el ultimo mes de 1747 aproximandamente el 0.01% aprovechandose correctamente las citas</t>
-  </si>
-  <si>
-    <t>medicosIPS SURA SAN DIEGO</t>
+    <t>Para servicios como medicina prioritaria de la oferta que generamos en el ultimo mes de 1747 aproximandamente el 0.01% aprovechandose correctamente las citas. Este ha sido el comportamiento segun el tiempo agendado de el numero de medicos que han trabajado en la sede</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/wagamezj/25.Modelo-completo/main/Graficas/medicos15.png</t>
   </si>
   <si>
     <t>salcaraz@sura.com.co</t>
@@ -287,10 +287,10 @@
 </t>
   </si>
   <si>
-    <t>Para servicios como medicina prioritaria de la oferta que generamos en el ultimo mes de 3772 aproximandamente el 0.02% aprovechandose correctamente las citas</t>
-  </si>
-  <si>
-    <t>medicosIPS SURA TEQUENDAMA</t>
+    <t>Para servicios como medicina prioritaria de la oferta que generamos en el ultimo mes de 3772 aproximandamente el 0.02% aprovechandose correctamente las citas. Este ha sido el comportamiento segun el tiempo agendado de el numero de medicos que han trabajado en la sede</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/wagamezj/25.Modelo-completo/main/Graficas/medicos16.png</t>
   </si>
 </sst>
 </file>
@@ -410,16 +410,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A902A6FF-40AB-4E29-A833-7B53111CBD08}" name="Tabla1" displayName="Tabla1" ref="A1:G18" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="1" tableBorderDxfId="2">
-  <autoFilter ref="A1:G18" xr:uid="{A066AF58-A796-446B-8D48-A1E331547358}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{34763053-190B-4FCF-9DE3-A6E223FC7E2F}" name="Tabla1" displayName="Tabla1" ref="A1:G18" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="1" tableBorderDxfId="2">
+  <autoFilter ref="A1:G18" xr:uid="{174A3190-1349-4801-B472-B6FC208A50D1}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{49B1D273-DCEC-4E02-BFD5-AE50AB5A6F5B}" name="Id"/>
-    <tableColumn id="2" xr3:uid="{9DD0D43F-4765-4C19-A62B-AA68B8CD0DF4}" name="Email"/>
-    <tableColumn id="3" xr3:uid="{CF7579DD-9B30-428E-A8A3-95E52B3816A4}" name="Asunto"/>
-    <tableColumn id="4" xr3:uid="{CEA12A31-E0F5-4FFA-BD1C-89BE1144C8BD}" name="Cuerpo"/>
-    <tableColumn id="5" xr3:uid="{12295808-EAE7-4F76-B661-A24879D0716D}" name="Cuerpo 2"/>
-    <tableColumn id="6" xr3:uid="{268CB6F8-3289-4D1C-95A3-F3D78D445AB7}" name="Date"/>
-    <tableColumn id="7" xr3:uid="{CB1B6940-CFAF-4A62-89D2-5A7B4171C1A6}" name="imagen"/>
+    <tableColumn id="1" xr3:uid="{E14F3485-F9B5-4D0E-BAF3-AFD7543B616F}" name="Id"/>
+    <tableColumn id="2" xr3:uid="{85F6C167-5495-4F60-B6EE-AE8A2EC076CC}" name="Email"/>
+    <tableColumn id="3" xr3:uid="{5CE029A9-0755-4882-B7F1-D6442F844A24}" name="Asunto"/>
+    <tableColumn id="4" xr3:uid="{17079F56-226C-4ACB-A25A-5FFF9C556CC4}" name="Cuerpo"/>
+    <tableColumn id="5" xr3:uid="{FC8FA6BD-8877-4509-A814-5B4B90E127E1}" name="Cuerpo 2"/>
+    <tableColumn id="6" xr3:uid="{9506A2AA-625D-4E9D-9241-DAC15EE86AFB}" name="Date"/>
+    <tableColumn id="7" xr3:uid="{91430D03-DA86-438A-BE3D-B5E0BE669A00}" name="imagen"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -721,7 +721,7 @@
     <col min="3" max="3" width="9.42578125" customWidth="1"/>
     <col min="4" max="4" width="9.5703125" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="7" max="7" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="91" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
